--- a/GermanLuisExcel.xlsx
+++ b/GermanLuisExcel.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="65">
   <si>
     <t xml:space="preserve">English </t>
   </si>
@@ -163,14 +163,59 @@
     <t>bist du alt?</t>
   </si>
   <si>
-    <t>Intent-</t>
+    <t>what's your name?</t>
+  </si>
+  <si>
+    <t>what is your name?</t>
+  </si>
+  <si>
+    <t>Hi</t>
+  </si>
+  <si>
+    <t>Hey</t>
+  </si>
+  <si>
+    <t>good morning</t>
+  </si>
+  <si>
+    <t>good evening</t>
+  </si>
+  <si>
+    <t>how are you</t>
+  </si>
+  <si>
+    <t>Wie heißen Sie?</t>
+  </si>
+  <si>
+    <t>wie ist dein Name?</t>
+  </si>
+  <si>
+    <t>Hallo</t>
+  </si>
+  <si>
+    <t>guten Morgen</t>
+  </si>
+  <si>
+    <t>guten Abend</t>
+  </si>
+  <si>
+    <t>Wie geht es dir</t>
+  </si>
+  <si>
+    <t>Guten Tag!</t>
+  </si>
+  <si>
+    <t>good day</t>
+  </si>
+  <si>
+    <t>Intent- Greeting</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -280,7 +325,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -312,10 +357,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -347,7 +391,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -523,21 +566,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C29"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A30" sqref="A30"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="54.5703125" customWidth="1"/>
+    <col min="1" max="1" width="54.54296875" customWidth="1"/>
     <col min="2" max="2" width="59" customWidth="1"/>
-    <col min="3" max="3" width="41.140625" customWidth="1"/>
+    <col min="3" max="3" width="41.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -548,12 +591,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="15.5">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -564,7 +607,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" ht="15.5">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -575,7 +618,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" ht="15.5">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -586,7 +629,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" ht="15.5">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -597,7 +640,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" ht="15.5">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -608,7 +651,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" ht="15.5">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -619,16 +662,16 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" ht="15.5">
       <c r="B9" s="1"/>
     </row>
-    <row r="10" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" ht="15.5">
       <c r="A10" t="s">
         <v>17</v>
       </c>
       <c r="B10" s="1"/>
     </row>
-    <row r="11" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" ht="15.5">
       <c r="A11" t="s">
         <v>18</v>
       </c>
@@ -639,7 +682,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" ht="15.5">
       <c r="A12" t="s">
         <v>19</v>
       </c>
@@ -650,7 +693,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" ht="15.5">
       <c r="A13" t="s">
         <v>20</v>
       </c>
@@ -661,7 +704,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" ht="15.5">
       <c r="A14" t="s">
         <v>21</v>
       </c>
@@ -672,7 +715,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" ht="15.5">
       <c r="A15" t="s">
         <v>22</v>
       </c>
@@ -683,7 +726,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" ht="15.5">
       <c r="A16" t="s">
         <v>23</v>
       </c>
@@ -694,7 +737,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" ht="15.5">
       <c r="A17" t="s">
         <v>24</v>
       </c>
@@ -705,12 +748,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3">
       <c r="A19" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3">
       <c r="A20" t="s">
         <v>40</v>
       </c>
@@ -721,7 +764,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3">
       <c r="A21" t="s">
         <v>33</v>
       </c>
@@ -732,7 +775,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3">
       <c r="A22" t="s">
         <v>34</v>
       </c>
@@ -743,7 +786,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3">
       <c r="A23" t="s">
         <v>35</v>
       </c>
@@ -754,7 +797,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3">
       <c r="A24" t="s">
         <v>36</v>
       </c>
@@ -765,7 +808,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3">
       <c r="A25" t="s">
         <v>37</v>
       </c>
@@ -776,7 +819,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3">
       <c r="A26" t="s">
         <v>38</v>
       </c>
@@ -787,7 +830,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3">
       <c r="A27" t="s">
         <v>39</v>
       </c>
@@ -798,9 +841,97 @@
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3">
       <c r="A29" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" t="s">
         <v>49</v>
+      </c>
+      <c r="B30" t="s">
+        <v>56</v>
+      </c>
+      <c r="C30" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" t="s">
+        <v>50</v>
+      </c>
+      <c r="B31" t="s">
+        <v>57</v>
+      </c>
+      <c r="C31" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" t="s">
+        <v>51</v>
+      </c>
+      <c r="B32" t="s">
+        <v>58</v>
+      </c>
+      <c r="C32" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" t="s">
+        <v>52</v>
+      </c>
+      <c r="B33" t="s">
+        <v>58</v>
+      </c>
+      <c r="C33" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" t="s">
+        <v>53</v>
+      </c>
+      <c r="B34" t="s">
+        <v>59</v>
+      </c>
+      <c r="C34" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" t="s">
+        <v>54</v>
+      </c>
+      <c r="B35" t="s">
+        <v>60</v>
+      </c>
+      <c r="C35" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" t="s">
+        <v>55</v>
+      </c>
+      <c r="B36" t="s">
+        <v>61</v>
+      </c>
+      <c r="C36" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" t="s">
+        <v>63</v>
+      </c>
+      <c r="B37" t="s">
+        <v>62</v>
+      </c>
+      <c r="C37" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
